--- a/WorkBot/main/backend/ordering/OrderFiles/Sysco/Sysco_Triphammer_20250618.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Sysco/Sysco_Triphammer_20250618.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1177,276 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1161181</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cream Cheese</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>65.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>65.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7119615</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Naked - Berry Blast</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>7119269</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Naked - Green Machine</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7119250</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Naked - Mighty Mango</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7119223</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Naked - Strawberry Banana</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7715362</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cleaner - Oven &amp; Grill (arsl)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4136768</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PKT Ketchup</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>8821554</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Frz Lemonade</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2072536</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Frz Orange Juice</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>116.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>116.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1954734</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Smoothie - Ice Cream</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>160.28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
